--- a/src/main/resources/inscritExcel/sample_2.xlsx
+++ b/src/main/resources/inscritExcel/sample_2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaiyangzhang/eclipse-workspace/Projet_Agile_Groupe_2/src/main/resources/inscritExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMX\Documents\GitHub\Projet_Agile_Groupe_2\src\main\resources\inscritExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EA05E4-81AB-F042-8492-073D88D6E6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B04C02-9E0D-4DCD-9528-3077293FF28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="760" windowWidth="28100" windowHeight="17200" xr2:uid="{A1786E9A-71EF-3746-BC2D-28D8D9A968BF}"/>
+    <workbookView xWindow="5360" yWindow="840" windowWidth="15630" windowHeight="12960" xr2:uid="{A1786E9A-71EF-3746-BC2D-28D8D9A968BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Nom</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,34 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kaiyang111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exemple1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exemple2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kkkkk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>182011220gjgjh456@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ghoon@127.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parent1_Nom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,45 +79,76 @@
     <t>Parent2_email</t>
   </si>
   <si>
-    <t>KKK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000001@gmail.com</t>
-  </si>
-  <si>
-    <t>eee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>er</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Yajing</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Xin</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Maro</t>
+  </si>
+  <si>
+    <t>Omaro</t>
+  </si>
+  <si>
+    <t>Marow</t>
+  </si>
+  <si>
+    <t>parent.excel1@gmail.com</t>
+  </si>
+  <si>
+    <t>parent.excel2@gmail.com</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>mami</t>
+  </si>
+  <si>
+    <t>mamaa</t>
+  </si>
+  <si>
+    <t>mamii</t>
+  </si>
+  <si>
+    <t>player.excel1@test.com</t>
+  </si>
+  <si>
+    <t>player.excel2@test.com</t>
+  </si>
+  <si>
+    <t>parent.excel12@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -154,7 +157,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,8 +197,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,16 +532,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A35BA3F-3EC1-B341-AE03-34F0F43369BA}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="22.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="14.9140625" customWidth="1"/>
+    <col min="9" max="9" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,98 +560,101 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D1039782-FC9C-9145-90BF-4FCE670B3623}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A21A0F4A-3871-CE46-8DDF-A63E21ABB359}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{AC7AB0EC-7BF8-C246-85E7-A06B8F4166AC}"/>
-    <hyperlink ref="J4" r:id="rId4" display="2000000@gmail.com" xr:uid="{1699ED27-32CD-F142-BDDD-A0E06B67EB7A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A21A0F4A-3871-CE46-8DDF-A63E21ABB359}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D44B5761-A013-45F6-A4F8-E8FB3BB01400}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{A0AC36F5-CCDE-4077-B049-7E2930A5C968}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{20E886EC-6CA4-418F-8089-BAF06EC5C06A}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{FA9E4443-8D84-49E5-8283-6D41D19918D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
